--- a/biology/Médecine/Pore_dilaté/Pore_dilaté.xlsx
+++ b/biology/Médecine/Pore_dilaté/Pore_dilaté.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pore_dilat%C3%A9</t>
+          <t>Pore_dilaté</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un pore dilaté, également connu sous le nom de pore dilaté de Winer, est une affection cutanée caractérisée par un comédon isolé, proéminent et ouvert sur le visage ou la partie supérieure du tronc d'un individu[1]. Le dermatologue Louis H. Winer est crédité pour la découverte du pore dilaté[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un pore dilaté, également connu sous le nom de pore dilaté de Winer, est une affection cutanée caractérisée par un comédon isolé, proéminent et ouvert sur le visage ou la partie supérieure du tronc d'un individu. Le dermatologue Louis H. Winer est crédité pour la découverte du pore dilaté,.
 </t>
         </is>
       </c>
